--- a/IHSCA2019Q3.xlsx
+++ b/IHSCA2019Q3.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="729" uniqueCount="249">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="714" uniqueCount="238">
   <si>
     <t>會計項目</t>
   </si>
@@ -1474,42 +1474,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>BTC</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>=</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>USD</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>USD</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>OZ GOLD</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>OZ GOLD</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>=</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>USD</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>TWD</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>3245.065 oz Gold</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -1545,10 +1509,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>TWD</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>175,445,387 TWD</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -1570,10 +1530,6 @@
   </si>
   <si>
     <t>116,963,591 TWD</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>TWD</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
@@ -1929,7 +1885,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="82">
+  <cellXfs count="80">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2145,12 +2101,6 @@
     </xf>
     <xf numFmtId="31" fontId="14" fillId="7" borderId="7" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
@@ -2458,7 +2408,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N166"/>
+  <dimension ref="A1:D166"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -2467,9 +2417,6 @@
     <col min="1" max="1" width="59" customWidth="1"/>
     <col min="2" max="3" width="21.42578125" customWidth="1"/>
     <col min="4" max="4" width="19.85546875" customWidth="1"/>
-    <col min="5" max="5" width="9.7109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.85546875" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="13" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
@@ -2481,12 +2428,12 @@
       <c r="D1" s="1"/>
     </row>
     <row r="2" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="80" t="s">
+      <c r="A2" s="78" t="s">
         <v>138</v>
       </c>
-      <c r="B2" s="81"/>
-      <c r="C2" s="81"/>
-      <c r="D2" s="81"/>
+      <c r="B2" s="79"/>
+      <c r="C2" s="79"/>
+      <c r="D2" s="79"/>
     </row>
     <row r="3" spans="1:4" ht="30.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
@@ -2525,7 +2472,7 @@
         <v>132</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>224</v>
+        <v>214</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
@@ -2539,7 +2486,7 @@
         <v>133</v>
       </c>
       <c r="D6" s="6" t="s">
-        <v>225</v>
+        <v>215</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
@@ -2553,7 +2500,7 @@
         <v>134</v>
       </c>
       <c r="D7" s="24" t="s">
-        <v>222</v>
+        <v>212</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
@@ -2804,8 +2751,8 @@
       <c r="C25" s="5" t="s">
         <v>132</v>
       </c>
-      <c r="D25" s="74" t="s">
-        <v>221</v>
+      <c r="D25" s="72" t="s">
+        <v>211</v>
       </c>
     </row>
     <row r="26" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
@@ -2818,7 +2765,7 @@
       <c r="C26" s="5" t="s">
         <v>135</v>
       </c>
-      <c r="D26" s="74" t="s">
+      <c r="D26" s="72" t="s">
         <v>177</v>
       </c>
     </row>
@@ -2832,7 +2779,7 @@
       <c r="C27" s="5" t="s">
         <v>135</v>
       </c>
-      <c r="D27" s="74" t="s">
+      <c r="D27" s="72" t="s">
         <v>177</v>
       </c>
     </row>
@@ -3014,7 +2961,7 @@
       <c r="C40" s="5" t="s">
         <v>135</v>
       </c>
-      <c r="D40" s="74" t="s">
+      <c r="D40" s="72" t="s">
         <v>177</v>
       </c>
     </row>
@@ -3029,7 +2976,7 @@
         <v>136</v>
       </c>
       <c r="D41" s="5" t="s">
-        <v>223</v>
+        <v>213</v>
       </c>
     </row>
     <row r="42" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
@@ -3042,7 +2989,7 @@
       <c r="C42" s="5" t="s">
         <v>62</v>
       </c>
-      <c r="D42" s="74" t="s">
+      <c r="D42" s="72" t="s">
         <v>62</v>
       </c>
     </row>
@@ -3056,7 +3003,7 @@
       <c r="C43" s="5" t="s">
         <v>62</v>
       </c>
-      <c r="D43" s="74" t="s">
+      <c r="D43" s="72" t="s">
         <v>62</v>
       </c>
     </row>
@@ -3068,10 +3015,10 @@
         <v>0</v>
       </c>
       <c r="C44" s="5" t="s">
-        <v>232</v>
-      </c>
-      <c r="D44" s="74" t="s">
-        <v>232</v>
+        <v>221</v>
+      </c>
+      <c r="D44" s="72" t="s">
+        <v>221</v>
       </c>
     </row>
     <row r="45" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
@@ -3110,10 +3057,10 @@
         <v>0</v>
       </c>
       <c r="C47" s="23" t="s">
-        <v>247</v>
+        <v>236</v>
       </c>
       <c r="D47" s="23" t="s">
-        <v>248</v>
+        <v>237</v>
       </c>
     </row>
     <row r="48" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
@@ -3130,7 +3077,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A49" s="25" t="s">
         <v>97</v>
       </c>
@@ -3144,7 +3091,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A50" s="4" t="s">
         <v>12</v>
       </c>
@@ -3152,13 +3099,13 @@
         <v>143</v>
       </c>
       <c r="C50" s="5" t="s">
-        <v>233</v>
+        <v>222</v>
       </c>
       <c r="D50" s="5" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="51" spans="1:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A51" s="29" t="s">
         <v>103</v>
       </c>
@@ -3166,13 +3113,13 @@
         <v>144</v>
       </c>
       <c r="C51" s="23" t="s">
-        <v>234</v>
+        <v>223</v>
       </c>
       <c r="D51" s="23" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="52" spans="1:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A52" s="28" t="s">
         <v>102</v>
       </c>
@@ -3186,7 +3133,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A53" s="22" t="s">
         <v>101</v>
       </c>
@@ -3194,13 +3141,13 @@
         <v>145</v>
       </c>
       <c r="C53" s="23" t="s">
-        <v>235</v>
+        <v>224</v>
       </c>
       <c r="D53" s="23" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="54" spans="1:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A54" s="4" t="s">
         <v>13</v>
       </c>
@@ -3214,7 +3161,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A55" s="13" t="s">
         <v>67</v>
       </c>
@@ -3228,7 +3175,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A56" s="13" t="s">
         <v>66</v>
       </c>
@@ -3238,11 +3185,11 @@
       <c r="C56" s="5" t="s">
         <v>132</v>
       </c>
-      <c r="D56" s="74" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="57" spans="1:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D56" s="72" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A57" s="4" t="s">
         <v>15</v>
       </c>
@@ -3252,11 +3199,11 @@
       <c r="C57" s="5" t="s">
         <v>132</v>
       </c>
-      <c r="D57" s="74" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="58" spans="1:5" ht="36.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D57" s="72" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" ht="36.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A58" s="20" t="s">
         <v>68</v>
       </c>
@@ -3267,24 +3214,24 @@
         <v>137</v>
       </c>
       <c r="D58" s="5" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="60" spans="1:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A60" s="8" t="s">
         <v>17</v>
       </c>
       <c r="B60" s="8"/>
     </row>
-    <row r="61" spans="1:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A61" s="80" t="s">
+    <row r="61" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A61" s="78" t="s">
         <v>138</v>
       </c>
-      <c r="B61" s="81"/>
-      <c r="C61" s="81"/>
-      <c r="D61" s="81"/>
-    </row>
-    <row r="62" spans="1:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B61" s="79"/>
+      <c r="C61" s="79"/>
+      <c r="D61" s="79"/>
+    </row>
+    <row r="62" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A62" s="2" t="s">
         <v>0</v>
       </c>
@@ -3298,7 +3245,7 @@
         <v>43735</v>
       </c>
     </row>
-    <row r="63" spans="1:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A63" s="3"/>
       <c r="B63" s="47" t="s">
         <v>1</v>
@@ -3310,7 +3257,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="64" spans="1:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A64" s="4" t="s">
         <v>2</v>
       </c>
@@ -3323,12 +3270,8 @@
       <c r="D64" s="5" t="s">
         <v>179</v>
       </c>
-      <c r="E64">
-        <f>E68+E72</f>
-        <v>14831727</v>
-      </c>
-    </row>
-    <row r="65" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="65" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A65" s="4" t="s">
         <v>3</v>
       </c>
@@ -3341,24 +3284,8 @@
       <c r="D65" s="6" t="s">
         <v>176</v>
       </c>
-      <c r="E65">
-        <f>SUM(F65:I65)</f>
-        <v>3192936</v>
-      </c>
-      <c r="F65">
-        <v>959514</v>
-      </c>
-      <c r="G65">
-        <v>1748230</v>
-      </c>
-      <c r="H65">
-        <v>302094</v>
-      </c>
-      <c r="I65">
-        <v>183098</v>
-      </c>
-    </row>
-    <row r="66" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="66" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A66" s="4" t="s">
         <v>4</v>
       </c>
@@ -3371,12 +3298,8 @@
       <c r="D66" s="5">
         <v>0</v>
       </c>
-      <c r="E66">
-        <f t="shared" ref="E66:E72" si="0">SUM(F66:I66)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="67" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="67" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A67" s="4" t="s">
         <v>5</v>
       </c>
@@ -3386,15 +3309,11 @@
       <c r="C67" s="5" t="s">
         <v>125</v>
       </c>
-      <c r="D67" s="74" t="s">
+      <c r="D67" s="72" t="s">
         <v>179</v>
       </c>
-      <c r="E67">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="68" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="68" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A68" s="4" t="s">
         <v>6</v>
       </c>
@@ -3407,24 +3326,8 @@
       <c r="D68" s="5" t="s">
         <v>177</v>
       </c>
-      <c r="E68">
-        <f t="shared" si="0"/>
-        <v>5443000</v>
-      </c>
-      <c r="F68">
-        <v>543000</v>
-      </c>
-      <c r="G68">
-        <v>0</v>
-      </c>
-      <c r="H68">
-        <v>2726000</v>
-      </c>
-      <c r="I68">
-        <v>2174000</v>
-      </c>
-    </row>
-    <row r="69" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="69" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A69" s="4" t="s">
         <v>7</v>
       </c>
@@ -3437,12 +3340,8 @@
       <c r="D69" s="5" t="s">
         <v>127</v>
       </c>
-      <c r="E69">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="70" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="70" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A70" s="4" t="s">
         <v>8</v>
       </c>
@@ -3455,12 +3354,8 @@
       <c r="D70" s="5">
         <v>0</v>
       </c>
-      <c r="E70">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="71" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="71" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A71" s="4" t="s">
         <v>9</v>
       </c>
@@ -3473,12 +3368,8 @@
       <c r="D71" s="5" t="s">
         <v>127</v>
       </c>
-      <c r="E71">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="72" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="72" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A72" s="4" t="s">
         <v>10</v>
       </c>
@@ -3491,24 +3382,8 @@
       <c r="D72" s="5" t="s">
         <v>178</v>
       </c>
-      <c r="E72">
-        <f t="shared" si="0"/>
-        <v>9388727</v>
-      </c>
-      <c r="F72">
-        <v>2421887</v>
-      </c>
-      <c r="G72">
-        <v>2644213</v>
-      </c>
-      <c r="H72">
-        <v>2256980</v>
-      </c>
-      <c r="I72">
-        <v>2065647</v>
-      </c>
-    </row>
-    <row r="73" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="73" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A73" s="4" t="s">
         <v>11</v>
       </c>
@@ -3522,7 +3397,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="74" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A74" s="4" t="s">
         <v>59</v>
       </c>
@@ -3536,7 +3411,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="75" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A75" s="4" t="s">
         <v>12</v>
       </c>
@@ -3550,7 +3425,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="76" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A76" s="4" t="s">
         <v>13</v>
       </c>
@@ -3564,7 +3439,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="77" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A77" s="4" t="s">
         <v>14</v>
       </c>
@@ -3578,7 +3453,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="78" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A78" s="4" t="s">
         <v>15</v>
       </c>
@@ -3592,21 +3467,21 @@
         <v>179</v>
       </c>
     </row>
-    <row r="80" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A80" s="8" t="s">
         <v>158</v>
       </c>
       <c r="B80" s="8"/>
     </row>
-    <row r="81" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A81" s="80" t="s">
+    <row r="81" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A81" s="78" t="s">
         <v>138</v>
       </c>
-      <c r="B81" s="81"/>
-      <c r="C81" s="81"/>
-      <c r="D81" s="81"/>
-    </row>
-    <row r="82" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B81" s="79"/>
+      <c r="C81" s="79"/>
+      <c r="D81" s="79"/>
+    </row>
+    <row r="82" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A82" s="2" t="s">
         <v>0</v>
       </c>
@@ -3620,7 +3495,7 @@
         <v>43735</v>
       </c>
     </row>
-    <row r="83" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A83" s="3"/>
       <c r="B83" s="54" t="s">
         <v>1</v>
@@ -3632,7 +3507,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="84" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A84" s="4" t="s">
         <v>2</v>
       </c>
@@ -3642,11 +3517,11 @@
       <c r="C84" s="5" t="s">
         <v>117</v>
       </c>
-      <c r="D84" s="74" t="s">
+      <c r="D84" s="72" t="s">
         <v>183</v>
       </c>
     </row>
-    <row r="85" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A85" s="4" t="s">
         <v>3</v>
       </c>
@@ -3659,24 +3534,8 @@
       <c r="D85" s="6" t="s">
         <v>182</v>
       </c>
-      <c r="E85">
-        <f>SUM(F85:I85)</f>
-        <v>6074125</v>
-      </c>
-      <c r="F85">
-        <v>2391506</v>
-      </c>
-      <c r="G85">
-        <v>829611</v>
-      </c>
-      <c r="H85">
-        <v>905852</v>
-      </c>
-      <c r="I85">
-        <v>1947156</v>
-      </c>
-    </row>
-    <row r="86" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="86" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A86" s="4" t="s">
         <v>4</v>
       </c>
@@ -3689,12 +3548,8 @@
       <c r="D86" s="5">
         <v>0</v>
       </c>
-      <c r="E86" s="73">
-        <f t="shared" ref="E86:E92" si="1">SUM(F86:I86)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="87" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="87" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A87" s="4" t="s">
         <v>5</v>
       </c>
@@ -3704,15 +3559,11 @@
       <c r="C87" s="5" t="s">
         <v>117</v>
       </c>
-      <c r="D87" s="74" t="s">
+      <c r="D87" s="72" t="s">
         <v>183</v>
       </c>
-      <c r="E87" s="73">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="88" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="88" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A88" s="4" t="s">
         <v>6</v>
       </c>
@@ -3725,24 +3576,8 @@
       <c r="D88" s="5">
         <v>0</v>
       </c>
-      <c r="E88" s="73">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="F88">
-        <v>0</v>
-      </c>
-      <c r="G88">
-        <v>0</v>
-      </c>
-      <c r="H88">
-        <v>0</v>
-      </c>
-      <c r="I88">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="89" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="89" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A89" s="4" t="s">
         <v>7</v>
       </c>
@@ -3755,12 +3590,8 @@
       <c r="D89" s="5">
         <v>0</v>
       </c>
-      <c r="E89" s="73">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="90" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="90" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A90" s="4" t="s">
         <v>8</v>
       </c>
@@ -3773,12 +3604,8 @@
       <c r="D90" s="5">
         <v>0</v>
       </c>
-      <c r="E90" s="73">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="91" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="91" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A91" s="4" t="s">
         <v>9</v>
       </c>
@@ -3791,12 +3618,8 @@
       <c r="D91" s="5">
         <v>0</v>
       </c>
-      <c r="E91" s="73">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="92" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="92" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A92" s="4" t="s">
         <v>10</v>
       </c>
@@ -3809,24 +3632,8 @@
       <c r="D92" s="5" t="s">
         <v>183</v>
       </c>
-      <c r="E92" s="73">
-        <f t="shared" si="1"/>
-        <v>8711769</v>
-      </c>
-      <c r="F92">
-        <v>2391506</v>
-      </c>
-      <c r="G92">
-        <v>2148433</v>
-      </c>
-      <c r="H92">
-        <v>2224674</v>
-      </c>
-      <c r="I92">
-        <v>1947156</v>
-      </c>
-    </row>
-    <row r="93" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="93" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A93" s="4" t="s">
         <v>11</v>
       </c>
@@ -3836,25 +3643,25 @@
       <c r="C93" s="5" t="s">
         <v>61</v>
       </c>
-      <c r="D93" s="74" t="s">
+      <c r="D93" s="72" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="94" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A94" s="4" t="s">
         <v>59</v>
       </c>
       <c r="B94" s="57">
         <v>0</v>
       </c>
-      <c r="C94" s="77" t="s">
+      <c r="C94" s="75" t="s">
         <v>181</v>
       </c>
-      <c r="D94" s="77" t="s">
+      <c r="D94" s="75" t="s">
         <v>181</v>
       </c>
     </row>
-    <row r="95" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A95" s="4" t="s">
         <v>12</v>
       </c>
@@ -3868,7 +3675,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="96" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A96" s="4" t="s">
         <v>13</v>
       </c>
@@ -3882,7 +3689,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="97" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A97" s="4" t="s">
         <v>14</v>
       </c>
@@ -3896,7 +3703,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="98" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A98" s="4" t="s">
         <v>15</v>
       </c>
@@ -3906,25 +3713,25 @@
       <c r="C98" s="5" t="s">
         <v>117</v>
       </c>
-      <c r="D98" s="74" t="s">
+      <c r="D98" s="72" t="s">
         <v>183</v>
       </c>
     </row>
-    <row r="100" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A100" s="8" t="s">
         <v>18</v>
       </c>
       <c r="B100" s="8"/>
     </row>
-    <row r="101" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A101" s="80" t="s">
+    <row r="101" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A101" s="78" t="s">
         <v>138</v>
       </c>
-      <c r="B101" s="81"/>
-      <c r="C101" s="81"/>
-      <c r="D101" s="81"/>
-    </row>
-    <row r="102" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B101" s="79"/>
+      <c r="C101" s="79"/>
+      <c r="D101" s="79"/>
+    </row>
+    <row r="102" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A102" s="2" t="s">
         <v>0</v>
       </c>
@@ -3938,7 +3745,7 @@
         <v>43738</v>
       </c>
     </row>
-    <row r="103" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A103" s="3"/>
       <c r="B103" s="60" t="s">
         <v>1</v>
@@ -3950,7 +3757,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="104" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A104" s="4" t="s">
         <v>2</v>
       </c>
@@ -3963,15 +3770,8 @@
       <c r="D104" s="6" t="s">
         <v>185</v>
       </c>
-      <c r="F104">
-        <f>38047*1.23</f>
-        <v>46797.81</v>
-      </c>
-      <c r="G104" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="105" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="105" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A105" s="4" t="s">
         <v>3</v>
       </c>
@@ -3981,18 +3781,11 @@
       <c r="C105" s="6" t="s">
         <v>124</v>
       </c>
-      <c r="D105" s="75" t="s">
+      <c r="D105" s="73" t="s">
         <v>185</v>
       </c>
-      <c r="F105">
-        <f>F104*30.93</f>
-        <v>1447456.2633</v>
-      </c>
-      <c r="G105" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="106" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="106" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A106" s="4" t="s">
         <v>4</v>
       </c>
@@ -4006,7 +3799,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="107" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A107" s="4" t="s">
         <v>5</v>
       </c>
@@ -4016,11 +3809,11 @@
       <c r="C107" s="6" t="s">
         <v>124</v>
       </c>
-      <c r="D107" s="75" t="s">
+      <c r="D107" s="73" t="s">
         <v>185</v>
       </c>
     </row>
-    <row r="108" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A108" s="4" t="s">
         <v>6</v>
       </c>
@@ -4034,7 +3827,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="109" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A109" s="4" t="s">
         <v>7</v>
       </c>
@@ -4048,7 +3841,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="110" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A110" s="4" t="s">
         <v>8</v>
       </c>
@@ -4062,7 +3855,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="111" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A111" s="4" t="s">
         <v>9</v>
       </c>
@@ -4076,7 +3869,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="112" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A112" s="4" t="s">
         <v>10</v>
       </c>
@@ -4086,11 +3879,11 @@
       <c r="C112" s="6" t="s">
         <v>124</v>
       </c>
-      <c r="D112" s="75" t="s">
+      <c r="D112" s="73" t="s">
         <v>185</v>
       </c>
     </row>
-    <row r="113" spans="1:14" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A113" s="4" t="s">
         <v>11</v>
       </c>
@@ -4104,7 +3897,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="114" spans="1:14" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A114" s="4" t="s">
         <v>59</v>
       </c>
@@ -4118,7 +3911,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="115" spans="1:14" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A115" s="4" t="s">
         <v>12</v>
       </c>
@@ -4128,11 +3921,11 @@
       <c r="C115" s="6" t="s">
         <v>124</v>
       </c>
-      <c r="D115" s="75" t="s">
+      <c r="D115" s="73" t="s">
         <v>185</v>
       </c>
     </row>
-    <row r="116" spans="1:14" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A116" s="4" t="s">
         <v>13</v>
       </c>
@@ -4146,7 +3939,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="117" spans="1:14" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A117" s="4" t="s">
         <v>14</v>
       </c>
@@ -4160,7 +3953,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="118" spans="1:14" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A118" s="4" t="s">
         <v>15</v>
       </c>
@@ -4170,25 +3963,25 @@
       <c r="C118" s="6" t="s">
         <v>124</v>
       </c>
-      <c r="D118" s="75" t="s">
+      <c r="D118" s="73" t="s">
         <v>185</v>
       </c>
     </row>
-    <row r="120" spans="1:14" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A120" s="8" t="s">
         <v>19</v>
       </c>
       <c r="B120" s="8"/>
     </row>
-    <row r="121" spans="1:14" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A121" s="80" t="s">
+    <row r="121" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A121" s="78" t="s">
         <v>138</v>
       </c>
-      <c r="B121" s="81"/>
-      <c r="C121" s="81"/>
-      <c r="D121" s="81"/>
-    </row>
-    <row r="122" spans="1:14" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B121" s="79"/>
+      <c r="C121" s="79"/>
+      <c r="D121" s="79"/>
+    </row>
+    <row r="122" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A122" s="2" t="s">
         <v>0</v>
       </c>
@@ -4202,7 +3995,7 @@
         <v>43735</v>
       </c>
     </row>
-    <row r="123" spans="1:14" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A123" s="3"/>
       <c r="B123" s="66" t="s">
         <v>1</v>
@@ -4214,7 +4007,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="124" spans="1:14" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A124" s="4" t="s">
         <v>2</v>
       </c>
@@ -4225,29 +4018,10 @@
         <v>128</v>
       </c>
       <c r="D124" s="5" t="s">
-        <v>211</v>
-      </c>
-      <c r="F124" s="72">
-        <v>43647</v>
-      </c>
-      <c r="G124">
-        <v>416.7647</v>
-      </c>
-      <c r="H124" t="s">
         <v>202</v>
       </c>
-      <c r="I124" t="s">
-        <v>203</v>
-      </c>
-      <c r="J124">
-        <f>G124*10932</f>
-        <v>4556071.7004000004</v>
-      </c>
-      <c r="K124" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="125" spans="1:14" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="125" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A125" s="4" t="s">
         <v>3</v>
       </c>
@@ -4257,31 +4031,11 @@
       <c r="C125" s="5" t="s">
         <v>128</v>
       </c>
-      <c r="D125" s="74" t="s">
-        <v>211</v>
-      </c>
-      <c r="F125" s="72">
-        <v>43648</v>
-      </c>
-      <c r="G125">
-        <f>J124</f>
-        <v>4556071.7004000004</v>
-      </c>
-      <c r="H125" t="s">
-        <v>205</v>
-      </c>
-      <c r="I125" t="s">
-        <v>203</v>
-      </c>
-      <c r="J125">
-        <f>G125/1404</f>
-        <v>3245.0653136752139</v>
-      </c>
-      <c r="K125" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="126" spans="1:14" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D125" s="72" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="126" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A126" s="4" t="s">
         <v>4</v>
       </c>
@@ -4294,38 +4048,8 @@
       <c r="D126" s="5">
         <v>0</v>
       </c>
-      <c r="F126" s="72">
-        <v>43735</v>
-      </c>
-      <c r="G126">
-        <f>J125</f>
-        <v>3245.0653136752139</v>
-      </c>
-      <c r="H126" t="s">
-        <v>207</v>
-      </c>
-      <c r="I126" t="s">
-        <v>208</v>
-      </c>
-      <c r="J126">
-        <f>G126*1499</f>
-        <v>4864352.9051991459</v>
-      </c>
-      <c r="K126" t="s">
-        <v>209</v>
-      </c>
-      <c r="L126" t="s">
-        <v>203</v>
-      </c>
-      <c r="M126">
-        <f>J126*30.93</f>
-        <v>150454435.35780957</v>
-      </c>
-      <c r="N126" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="127" spans="1:14" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="127" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A127" s="4" t="s">
         <v>5</v>
       </c>
@@ -4335,11 +4059,11 @@
       <c r="C127" s="5" t="s">
         <v>128</v>
       </c>
-      <c r="D127" s="74" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="128" spans="1:14" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D127" s="72" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="128" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A128" s="4" t="s">
         <v>6</v>
       </c>
@@ -4352,12 +4076,8 @@
       <c r="D128" s="5">
         <v>0</v>
       </c>
-      <c r="J128">
-        <f>J126-J124</f>
-        <v>308281.20479914546</v>
-      </c>
-    </row>
-    <row r="129" spans="1:10" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="129" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A129" s="4" t="s">
         <v>7</v>
       </c>
@@ -4370,12 +4090,8 @@
       <c r="D129" s="6">
         <v>0</v>
       </c>
-      <c r="J129">
-        <f>J128/1.5</f>
-        <v>205520.80319943032</v>
-      </c>
-    </row>
-    <row r="130" spans="1:10" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="130" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A130" s="4" t="s">
         <v>8</v>
       </c>
@@ -4389,7 +4105,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="131" spans="1:10" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A131" s="4" t="s">
         <v>9</v>
       </c>
@@ -4403,7 +4119,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="132" spans="1:10" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A132" s="4" t="s">
         <v>10</v>
       </c>
@@ -4414,10 +4130,10 @@
         <v>130</v>
       </c>
       <c r="D132" s="5" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="133" spans="1:10" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="133" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A133" s="4" t="s">
         <v>11</v>
       </c>
@@ -4428,10 +4144,10 @@
         <v>129</v>
       </c>
       <c r="D133" s="5" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="134" spans="1:10" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="134" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A134" s="4" t="s">
         <v>59</v>
       </c>
@@ -4445,7 +4161,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="135" spans="1:10" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A135" s="4" t="s">
         <v>12</v>
       </c>
@@ -4456,10 +4172,10 @@
         <v>131</v>
       </c>
       <c r="D135" s="5" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="136" spans="1:10" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="136" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A136" s="4" t="s">
         <v>13</v>
       </c>
@@ -4473,7 +4189,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="137" spans="1:10" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A137" s="4" t="s">
         <v>14</v>
       </c>
@@ -4487,7 +4203,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="138" spans="1:10" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A138" s="4" t="s">
         <v>15</v>
       </c>
@@ -4497,24 +4213,24 @@
       <c r="C138" s="5" t="s">
         <v>130</v>
       </c>
-      <c r="D138" s="74" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="140" spans="1:10" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D138" s="72" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="140" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A140" s="8" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="141" spans="1:10" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A141" s="80" t="s">
+    <row r="141" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A141" s="78" t="s">
         <v>138</v>
       </c>
-      <c r="B141" s="81"/>
-      <c r="C141" s="81"/>
-      <c r="D141" s="81"/>
-    </row>
-    <row r="142" spans="1:10" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B141" s="79"/>
+      <c r="C141" s="79"/>
+      <c r="D141" s="79"/>
+    </row>
+    <row r="142" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A142" s="2" t="s">
         <v>0</v>
       </c>
@@ -4528,7 +4244,7 @@
         <v>43735</v>
       </c>
     </row>
-    <row r="143" spans="1:10" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A143" s="3"/>
       <c r="B143" s="3" t="s">
         <v>1</v>
@@ -4540,7 +4256,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="144" spans="1:10" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A144" s="4" t="s">
         <v>5</v>
       </c>
@@ -4589,12 +4305,12 @@
       <c r="B148" s="19"/>
     </row>
     <row r="149" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A149" s="80" t="s">
+      <c r="A149" s="78" t="s">
         <v>138</v>
       </c>
-      <c r="B149" s="81"/>
-      <c r="C149" s="81"/>
-      <c r="D149" s="81"/>
+      <c r="B149" s="79"/>
+      <c r="C149" s="79"/>
+      <c r="D149" s="79"/>
     </row>
     <row r="150" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A150" s="2" t="s">
@@ -4850,7 +4566,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H181"/>
+  <dimension ref="A1:B181"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
@@ -4867,10 +4583,10 @@
       <c r="B1" s="1"/>
     </row>
     <row r="2" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="80" t="s">
+      <c r="A2" s="78" t="s">
         <v>171</v>
       </c>
-      <c r="B2" s="81"/>
+      <c r="B2" s="79"/>
     </row>
     <row r="3" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
@@ -4891,7 +4607,7 @@
         <v>20</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>228</v>
+        <v>217</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
@@ -4906,8 +4622,8 @@
       <c r="A7" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="B7" s="75" t="s">
-        <v>228</v>
+      <c r="B7" s="73" t="s">
+        <v>217</v>
       </c>
     </row>
     <row r="8" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
@@ -4930,8 +4646,8 @@
       <c r="A10" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="B10" s="75" t="s">
-        <v>228</v>
+      <c r="B10" s="73" t="s">
+        <v>217</v>
       </c>
     </row>
     <row r="11" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
@@ -4954,16 +4670,16 @@
       <c r="A13" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="B13" s="75" t="s">
-        <v>228</v>
+      <c r="B13" s="73" t="s">
+        <v>217</v>
       </c>
     </row>
     <row r="14" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="B14" s="78" t="s">
-        <v>230</v>
+      <c r="B14" s="76" t="s">
+        <v>219</v>
       </c>
     </row>
     <row r="15" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
@@ -4971,7 +4687,7 @@
         <v>43</v>
       </c>
       <c r="B15" s="14" t="s">
-        <v>231</v>
+        <v>220</v>
       </c>
     </row>
     <row r="16" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
@@ -4982,15 +4698,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="B17" s="78" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B17" s="76" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="13" t="s">
         <v>63</v>
       </c>
@@ -4998,68 +4714,61 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="B19" s="78" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B19" s="76" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="B20" s="76" t="s">
-        <v>239</v>
-      </c>
-      <c r="D20">
-        <f>308281*30.93</f>
-        <v>9535131.3300000001</v>
-      </c>
-      <c r="E20" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B20" s="74" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21" s="18" t="s">
         <v>33</v>
       </c>
-      <c r="B21" s="78" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B21" s="76" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A22" s="18" t="s">
         <v>34</v>
       </c>
-      <c r="B22" s="76" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B22" s="74" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A23" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="B23" s="76" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B23" s="74" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A24" s="4" t="s">
         <v>36</v>
       </c>
       <c r="B24" s="12"/>
     </row>
-    <row r="25" spans="1:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A25" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="B25" s="78" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B25" s="76" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A26" s="4" t="s">
         <v>38</v>
       </c>
@@ -5067,15 +4776,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A27" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="B27" s="76" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B27" s="74" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A28" s="4" t="s">
         <v>40</v>
       </c>
@@ -5083,34 +4792,34 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A29" s="4" t="s">
         <v>41</v>
       </c>
       <c r="B29" s="14" t="s">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A30" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="B30" s="78" t="s">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B30" s="76" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="33" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="80" t="s">
+    <row r="33" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A33" s="78" t="s">
         <v>171</v>
       </c>
-      <c r="B33" s="81"/>
-    </row>
-    <row r="34" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B33" s="79"/>
+    </row>
+    <row r="34" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A34" s="2" t="s">
         <v>0</v>
       </c>
@@ -5118,40 +4827,21 @@
         <v>173</v>
       </c>
     </row>
-    <row r="35" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A35" s="3"/>
       <c r="B35" s="3" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A36" s="4" t="s">
         <v>20</v>
       </c>
       <c r="B36" s="11" t="s">
         <v>186</v>
       </c>
-      <c r="C36">
-        <f>D36*(E36+F36+G36+H36)</f>
-        <v>562000</v>
-      </c>
-      <c r="D36">
-        <v>2000</v>
-      </c>
-      <c r="E36">
-        <v>40</v>
-      </c>
-      <c r="F36">
-        <v>45</v>
-      </c>
-      <c r="G36">
-        <v>105</v>
-      </c>
-      <c r="H36">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="37" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="37" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A37" s="4" t="s">
         <v>21</v>
       </c>
@@ -5159,15 +4849,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A38" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="B38" s="76" t="s">
+      <c r="B38" s="74" t="s">
         <v>186</v>
       </c>
     </row>
-    <row r="39" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A39" s="4" t="s">
         <v>23</v>
       </c>
@@ -5175,15 +4865,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A40" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="B40" s="76" t="s">
+      <c r="B40" s="74" t="s">
         <v>186</v>
       </c>
     </row>
-    <row r="41" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A41" s="4" t="s">
         <v>25</v>
       </c>
@@ -5191,7 +4881,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A42" s="4" t="s">
         <v>26</v>
       </c>
@@ -5199,23 +4889,23 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A43" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="B43" s="76" t="s">
+      <c r="B43" s="74" t="s">
         <v>186</v>
       </c>
     </row>
-    <row r="44" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A44" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="B44" s="78" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="45" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B44" s="76" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A45" s="13" t="s">
         <v>43</v>
       </c>
@@ -5223,7 +4913,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="46" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A46" s="4" t="s">
         <v>29</v>
       </c>
@@ -5231,23 +4921,23 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A47" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="B47" s="78" t="s">
+      <c r="B47" s="76" t="s">
         <v>187</v>
       </c>
     </row>
-    <row r="48" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A48" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="B48" s="78" t="s">
+      <c r="B48" s="76" t="s">
         <v>187</v>
       </c>
     </row>
-    <row r="49" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A49" s="4" t="s">
         <v>32</v>
       </c>
@@ -5255,29 +4945,29 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A50" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="B50" s="78" t="s">
+      <c r="B50" s="76" t="s">
         <v>187</v>
       </c>
     </row>
-    <row r="51" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A51" s="4" t="s">
         <v>36</v>
       </c>
       <c r="B51" s="12"/>
     </row>
-    <row r="52" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A52" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="B52" s="78" t="s">
+      <c r="B52" s="76" t="s">
         <v>187</v>
       </c>
     </row>
-    <row r="53" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A53" s="4" t="s">
         <v>38</v>
       </c>
@@ -5285,15 +4975,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A54" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="B54" s="78" t="s">
+      <c r="B54" s="76" t="s">
         <v>187</v>
       </c>
     </row>
-    <row r="55" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A55" s="4" t="s">
         <v>40</v>
       </c>
@@ -5301,7 +4991,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A56" s="4" t="s">
         <v>41</v>
       </c>
@@ -5309,26 +4999,26 @@
         <v>188</v>
       </c>
     </row>
-    <row r="57" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A57" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="B57" s="78" t="s">
+      <c r="B57" s="76" t="s">
         <v>189</v>
       </c>
     </row>
-    <row r="59" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A59" s="8" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="60" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A60" s="80" t="s">
+    <row r="60" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A60" s="78" t="s">
         <v>171</v>
       </c>
-      <c r="B60" s="81"/>
-    </row>
-    <row r="61" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B60" s="79"/>
+    </row>
+    <row r="61" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A61" s="2" t="s">
         <v>0</v>
       </c>
@@ -5336,39 +5026,33 @@
         <v>173</v>
       </c>
     </row>
-    <row r="62" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A62" s="3"/>
       <c r="B62" s="3" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="63" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A63" s="4" t="s">
         <v>20</v>
       </c>
       <c r="B63" s="11" t="s">
         <v>190</v>
       </c>
-      <c r="D63">
-        <v>2120</v>
-      </c>
-    </row>
-    <row r="64" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="64" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A64" s="4" t="s">
         <v>21</v>
       </c>
       <c r="B64" s="11">
         <v>0</v>
-      </c>
-      <c r="D64">
-        <v>2120</v>
       </c>
     </row>
     <row r="65" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A65" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="B65" s="76" t="s">
+      <c r="B65" s="74" t="s">
         <v>190</v>
       </c>
     </row>
@@ -5384,7 +5068,7 @@
       <c r="A67" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="B67" s="76" t="s">
+      <c r="B67" s="74" t="s">
         <v>190</v>
       </c>
     </row>
@@ -5408,7 +5092,7 @@
       <c r="A70" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="B70" s="76" t="s">
+      <c r="B70" s="74" t="s">
         <v>190</v>
       </c>
     </row>
@@ -5440,7 +5124,7 @@
       <c r="A74" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="B74" s="78" t="s">
+      <c r="B74" s="76" t="s">
         <v>192</v>
       </c>
     </row>
@@ -5448,7 +5132,7 @@
       <c r="A75" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="B75" s="78" t="s">
+      <c r="B75" s="76" t="s">
         <v>192</v>
       </c>
     </row>
@@ -5464,7 +5148,7 @@
       <c r="A77" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="B77" s="78" t="s">
+      <c r="B77" s="76" t="s">
         <v>192</v>
       </c>
     </row>
@@ -5478,7 +5162,7 @@
       <c r="A79" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="B79" s="78" t="s">
+      <c r="B79" s="76" t="s">
         <v>192</v>
       </c>
     </row>
@@ -5490,15 +5174,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="81" spans="1:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A81" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="B81" s="78" t="s">
+      <c r="B81" s="76" t="s">
         <v>192</v>
       </c>
     </row>
-    <row r="82" spans="1:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A82" s="4" t="s">
         <v>40</v>
       </c>
@@ -5506,7 +5190,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="83" spans="1:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A83" s="4" t="s">
         <v>41</v>
       </c>
@@ -5514,26 +5198,26 @@
         <v>194</v>
       </c>
     </row>
-    <row r="84" spans="1:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A84" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="B84" s="78" t="s">
+      <c r="B84" s="76" t="s">
         <v>195</v>
       </c>
     </row>
-    <row r="86" spans="1:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A86" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="87" spans="1:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A87" s="80" t="s">
+    <row r="87" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A87" s="78" t="s">
         <v>171</v>
       </c>
-      <c r="B87" s="81"/>
-    </row>
-    <row r="88" spans="1:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B87" s="79"/>
+    </row>
+    <row r="88" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A88" s="2" t="s">
         <v>0</v>
       </c>
@@ -5541,51 +5225,37 @@
         <v>172</v>
       </c>
     </row>
-    <row r="89" spans="1:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A89" s="3"/>
       <c r="B89" s="3" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="90" spans="1:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A90" s="4" t="s">
         <v>20</v>
       </c>
       <c r="B90" s="6" t="s">
         <v>200</v>
       </c>
-      <c r="D90">
-        <f>20163*1.23</f>
-        <v>24800.489999999998</v>
-      </c>
-      <c r="E90" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="91" spans="1:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="91" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A91" s="4" t="s">
         <v>21</v>
       </c>
       <c r="B91" s="11">
         <v>0</v>
       </c>
-      <c r="D91">
-        <f>D90*30.93</f>
-        <v>767079.15569999989</v>
-      </c>
-      <c r="E91" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="92" spans="1:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="92" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A92" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="B92" s="75" t="s">
+      <c r="B92" s="73" t="s">
         <v>200</v>
       </c>
     </row>
-    <row r="93" spans="1:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A93" s="4" t="s">
         <v>23</v>
       </c>
@@ -5593,15 +5263,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="94" spans="1:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A94" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="B94" s="75" t="s">
+      <c r="B94" s="73" t="s">
         <v>200</v>
       </c>
     </row>
-    <row r="95" spans="1:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A95" s="4" t="s">
         <v>25</v>
       </c>
@@ -5609,7 +5279,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="96" spans="1:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A96" s="4" t="s">
         <v>26</v>
       </c>
@@ -5621,7 +5291,7 @@
       <c r="A97" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="B97" s="75" t="s">
+      <c r="B97" s="73" t="s">
         <v>200</v>
       </c>
     </row>
@@ -5637,7 +5307,7 @@
       <c r="A99" s="13" t="s">
         <v>43</v>
       </c>
-      <c r="B99" s="75" t="s">
+      <c r="B99" s="73" t="s">
         <v>200</v>
       </c>
     </row>
@@ -5653,7 +5323,7 @@
       <c r="A101" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="B101" s="75" t="s">
+      <c r="B101" s="73" t="s">
         <v>200</v>
       </c>
     </row>
@@ -5669,7 +5339,7 @@
       <c r="A103" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="B103" s="75" t="s">
+      <c r="B103" s="73" t="s">
         <v>200</v>
       </c>
     </row>
@@ -5685,7 +5355,7 @@
       <c r="A105" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="B105" s="75" t="s">
+      <c r="B105" s="73" t="s">
         <v>200</v>
       </c>
     </row>
@@ -5699,7 +5369,7 @@
       <c r="A107" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="B107" s="75" t="s">
+      <c r="B107" s="73" t="s">
         <v>200</v>
       </c>
     </row>
@@ -5715,7 +5385,7 @@
       <c r="A109" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="B109" s="75" t="s">
+      <c r="B109" s="73" t="s">
         <v>200</v>
       </c>
     </row>
@@ -5739,7 +5409,7 @@
       <c r="A112" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="B112" s="78" t="s">
+      <c r="B112" s="76" t="s">
         <v>201</v>
       </c>
     </row>
@@ -5749,10 +5419,10 @@
       </c>
     </row>
     <row r="115" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A115" s="80" t="s">
+      <c r="A115" s="78" t="s">
         <v>171</v>
       </c>
-      <c r="B115" s="81"/>
+      <c r="B115" s="79"/>
     </row>
     <row r="116" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A116" s="2" t="s">
@@ -5856,7 +5526,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="129" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A129" s="4" t="s">
         <v>30</v>
       </c>
@@ -5864,7 +5534,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="130" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A130" s="4" t="s">
         <v>31</v>
       </c>
@@ -5872,15 +5542,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="131" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A131" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="B131" s="76" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="132" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B131" s="74" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="132" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A132" s="18" t="s">
         <v>33</v>
       </c>
@@ -5888,33 +5558,29 @@
         <v>0</v>
       </c>
     </row>
-    <row r="133" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A133" s="18" t="s">
         <v>34</v>
       </c>
       <c r="B133" s="11" t="s">
-        <v>215</v>
-      </c>
-      <c r="D133">
-        <f>308281*30.93</f>
-        <v>9535131.3300000001</v>
-      </c>
-    </row>
-    <row r="134" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="134" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A134" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="B134" s="76" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="135" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B134" s="74" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="135" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A135" s="4" t="s">
         <v>36</v>
       </c>
       <c r="B135" s="12"/>
     </row>
-    <row r="136" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A136" s="4" t="s">
         <v>37</v>
       </c>
@@ -5922,7 +5588,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="137" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A137" s="4" t="s">
         <v>38</v>
       </c>
@@ -5930,15 +5596,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="138" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A138" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="B138" s="76" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="139" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B138" s="74" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="139" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A139" s="4" t="s">
         <v>40</v>
       </c>
@@ -5946,32 +5612,32 @@
         <v>0</v>
       </c>
     </row>
-    <row r="140" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A140" s="4" t="s">
         <v>41</v>
       </c>
       <c r="B140" s="12" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="141" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="141" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A141" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="B141" s="77" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="143" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B141" s="75" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="143" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A143" s="8" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="144" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A144" s="80" t="s">
+    <row r="144" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A144" s="78" t="s">
         <v>171</v>
       </c>
-      <c r="B144" s="81"/>
+      <c r="B144" s="79"/>
     </row>
     <row r="145" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A145" s="2" t="s">
@@ -6033,10 +5699,10 @@
       </c>
     </row>
     <row r="154" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A154" s="80" t="s">
+      <c r="A154" s="78" t="s">
         <v>171</v>
       </c>
-      <c r="B154" s="81"/>
+      <c r="B154" s="79"/>
     </row>
     <row r="155" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A155" s="2" t="s">
@@ -6284,10 +5950,10 @@
       </c>
     </row>
     <row r="2" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="80" t="s">
+      <c r="A2" s="78" t="s">
         <v>175</v>
       </c>
-      <c r="B2" s="81"/>
+      <c r="B2" s="79"/>
     </row>
     <row r="3" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
@@ -6308,15 +5974,15 @@
         <v>57</v>
       </c>
       <c r="B5" s="12" t="s">
-        <v>228</v>
+        <v>217</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="B6" s="79" t="s">
-        <v>245</v>
+      <c r="B6" s="77" t="s">
+        <v>234</v>
       </c>
     </row>
     <row r="7" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
@@ -6331,8 +5997,8 @@
       <c r="A8" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="B8" s="76" t="s">
-        <v>239</v>
+      <c r="B8" s="74" t="s">
+        <v>228</v>
       </c>
     </row>
     <row r="9" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
@@ -6340,14 +6006,14 @@
         <v>51</v>
       </c>
       <c r="B9" s="17" t="s">
-        <v>246</v>
+        <v>235</v>
       </c>
     </row>
     <row r="10" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="B10" s="75" t="s">
+      <c r="B10" s="73" t="s">
         <v>133</v>
       </c>
     </row>
@@ -6355,16 +6021,16 @@
       <c r="A11" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="B11" s="75" t="s">
-        <v>225</v>
+      <c r="B11" s="73" t="s">
+        <v>215</v>
       </c>
     </row>
     <row r="12" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="B12" s="75" t="s">
-        <v>225</v>
+      <c r="B12" s="73" t="s">
+        <v>215</v>
       </c>
     </row>
     <row r="14" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
@@ -6373,10 +6039,10 @@
       </c>
     </row>
     <row r="15" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="80" t="s">
+      <c r="A15" s="78" t="s">
         <v>175</v>
       </c>
-      <c r="B15" s="81"/>
+      <c r="B15" s="79"/>
     </row>
     <row r="16" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="2" t="s">
@@ -6396,7 +6062,7 @@
       <c r="A18" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="B18" s="76" t="s">
+      <c r="B18" s="74" t="s">
         <v>186</v>
       </c>
     </row>
@@ -6428,7 +6094,7 @@
       <c r="A22" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="B22" s="78" t="s">
+      <c r="B22" s="76" t="s">
         <v>196</v>
       </c>
     </row>
@@ -6436,7 +6102,7 @@
       <c r="A23" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="B23" s="75" t="s">
+      <c r="B23" s="73" t="s">
         <v>126</v>
       </c>
     </row>
@@ -6444,7 +6110,7 @@
       <c r="A24" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="B24" s="75" t="s">
+      <c r="B24" s="73" t="s">
         <v>176</v>
       </c>
     </row>
@@ -6452,7 +6118,7 @@
       <c r="A25" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="B25" s="75" t="s">
+      <c r="B25" s="73" t="s">
         <v>176</v>
       </c>
     </row>
@@ -6462,10 +6128,10 @@
       </c>
     </row>
     <row r="28" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="80" t="s">
+      <c r="A28" s="78" t="s">
         <v>175</v>
       </c>
-      <c r="B28" s="81"/>
+      <c r="B28" s="79"/>
     </row>
     <row r="29" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A29" s="2" t="s">
@@ -6485,7 +6151,7 @@
       <c r="A31" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="B31" s="76" t="s">
+      <c r="B31" s="74" t="s">
         <v>190</v>
       </c>
     </row>
@@ -6525,7 +6191,7 @@
       <c r="A36" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="B36" s="75" t="s">
+      <c r="B36" s="73" t="s">
         <v>118</v>
       </c>
     </row>
@@ -6533,7 +6199,7 @@
       <c r="A37" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="B37" s="75" t="s">
+      <c r="B37" s="73" t="s">
         <v>182</v>
       </c>
     </row>
@@ -6541,7 +6207,7 @@
       <c r="A38" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="B38" s="75" t="s">
+      <c r="B38" s="73" t="s">
         <v>182</v>
       </c>
     </row>
@@ -6551,10 +6217,10 @@
       </c>
     </row>
     <row r="41" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A41" s="80" t="s">
+      <c r="A41" s="78" t="s">
         <v>175</v>
       </c>
-      <c r="B41" s="81"/>
+      <c r="B41" s="79"/>
     </row>
     <row r="42" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A42" s="2" t="s">
@@ -6574,7 +6240,7 @@
       <c r="A44" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="B44" s="75" t="s">
+      <c r="B44" s="73" t="s">
         <v>200</v>
       </c>
     </row>
@@ -6606,7 +6272,7 @@
       <c r="A48" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="B48" s="75" t="s">
+      <c r="B48" s="73" t="s">
         <v>200</v>
       </c>
     </row>
@@ -6614,7 +6280,7 @@
       <c r="A49" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="B49" s="75" t="s">
+      <c r="B49" s="73" t="s">
         <v>124</v>
       </c>
     </row>
@@ -6622,7 +6288,7 @@
       <c r="A50" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="B50" s="75" t="s">
+      <c r="B50" s="73" t="s">
         <v>185</v>
       </c>
     </row>
@@ -6630,7 +6296,7 @@
       <c r="A51" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="B51" s="75" t="s">
+      <c r="B51" s="73" t="s">
         <v>185</v>
       </c>
     </row>
@@ -6640,10 +6306,10 @@
       </c>
     </row>
     <row r="54" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A54" s="80" t="s">
+      <c r="A54" s="78" t="s">
         <v>175</v>
       </c>
-      <c r="B54" s="81"/>
+      <c r="B54" s="79"/>
     </row>
     <row r="55" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A55" s="2" t="s">
@@ -6687,16 +6353,16 @@
       <c r="A60" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="B60" s="76" t="s">
-        <v>215</v>
+      <c r="B60" s="74" t="s">
+        <v>206</v>
       </c>
     </row>
     <row r="61" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A61" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="B61" s="76" t="s">
-        <v>215</v>
+      <c r="B61" s="74" t="s">
+        <v>206</v>
       </c>
     </row>
     <row r="62" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
@@ -6704,7 +6370,7 @@
         <v>52</v>
       </c>
       <c r="B62" s="5" t="s">
-        <v>218</v>
+        <v>209</v>
       </c>
     </row>
     <row r="63" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
@@ -6712,15 +6378,15 @@
         <v>53</v>
       </c>
       <c r="B63" s="5" t="s">
-        <v>219</v>
+        <v>210</v>
       </c>
     </row>
     <row r="64" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A64" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="B64" s="74" t="s">
-        <v>211</v>
+      <c r="B64" s="72" t="s">
+        <v>202</v>
       </c>
     </row>
     <row r="66" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
@@ -6729,10 +6395,10 @@
       </c>
     </row>
     <row r="67" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A67" s="80" t="s">
+      <c r="A67" s="78" t="s">
         <v>175</v>
       </c>
-      <c r="B67" s="81"/>
+      <c r="B67" s="79"/>
     </row>
     <row r="68" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A68" s="2" t="s">
@@ -6818,10 +6484,10 @@
       </c>
     </row>
     <row r="80" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A80" s="80" t="s">
+      <c r="A80" s="78" t="s">
         <v>175</v>
       </c>
-      <c r="B80" s="81"/>
+      <c r="B80" s="79"/>
     </row>
     <row r="81" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A81" s="2" t="s">
@@ -6881,8 +6547,8 @@
       <c r="A88" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="B88" s="33">
-        <v>0</v>
+      <c r="B88" s="33" t="s">
+        <v>115</v>
       </c>
     </row>
     <row r="89" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
